--- a/viral/deep/datasets_description.xlsx
+++ b/viral/deep/datasets_description.xlsx
@@ -4,21 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="17550"/>
+    <workbookView windowWidth="22155" windowHeight="12615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sumary" sheetId="2" r:id="rId2"/>
+    <sheet name="acc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>BD</t>
   </si>
   <si>
+    <t>avg se len</t>
+  </si>
+  <si>
     <t>classes</t>
   </si>
   <si>
@@ -140,17 +145,37 @@
   </si>
   <si>
     <t>[[50 48 27]]</t>
+  </si>
+  <si>
+    <t>ML-DSP</t>
+  </si>
+  <si>
+    <t>CNN-1</t>
+  </si>
+  <si>
+    <t>CNN-2</t>
+  </si>
+  <si>
+    <t>CNN-3</t>
+  </si>
+  <si>
+    <t>Kameris</t>
+  </si>
+  <si>
+    <t>Castor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,8 +194,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,14 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -200,37 +240,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,22 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -275,23 +294,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,15 +316,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,49 +347,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,140 +543,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -516,26 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,17 +579,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +602,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +648,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -618,166 +670,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1101,298 +1207,1372 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="21.2" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="83.7" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.8" customWidth="1"/>
+    <col min="6" max="6" width="8.8" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17">
+        <v>16625.9391891891</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10595.0351620419</v>
+      </c>
+      <c r="C3" s="18">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17">
+        <v>31711.7106918239</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17">
+        <v>49178.3169642857</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="18">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17">
+        <v>277931.454022988</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="18">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="17">
+        <v>17529.5655172413</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="17">
+        <v>15689.065701559</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="18">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="17">
+        <v>16291.7119815668</v>
+      </c>
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17">
+        <v>16806.0983341045</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="17">
+        <v>18916.7070572569</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="18">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="17">
+        <v>3188.79565217391</v>
+      </c>
+      <c r="C12" s="18">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="18">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17">
+        <v>9163.5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="17">
+        <v>8991.59128978224</v>
+      </c>
+      <c r="C14" s="18">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="18">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:5">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1210.90458579881</v>
+      </c>
+      <c r="C15" s="18">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1719.23030023094</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="18">
+        <v>10825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="17">
+        <v>758.999859950515</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="18">
+        <v>21421</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:5">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1415.63938404106</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="18">
+        <v>10715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="17">
+        <v>369</v>
+      </c>
+      <c r="C19" s="18">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17">
+        <v>7610.016</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="83.7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8" customWidth="1"/>
-    <col min="5" max="5" width="8.8" style="1"/>
+    <col min="1" max="1" width="10.8" customWidth="1"/>
+    <col min="2" max="2" width="13.1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17">
+        <v>18916.7070572569</v>
+      </c>
+      <c r="C2" s="18">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>148</v>
+      <c r="D2" s="18">
+        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="17">
+        <v>3188.79565217391</v>
+      </c>
+      <c r="C3" s="18">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="20">
+        <v>9163.5</v>
+      </c>
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="1">
-        <v>159</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>224</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="17">
+        <v>8991.59128978224</v>
+      </c>
+      <c r="C5" s="18">
+        <v>18</v>
+      </c>
+      <c r="D5" s="18">
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>174</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1210.90458579881</v>
+      </c>
+      <c r="C6" s="18">
+        <v>28</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1352</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>290</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1719.23030023094</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>10825</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>898</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="17">
+        <v>758.999859950515</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>21421</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2170</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1415.63938404106</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>10715</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4322</v>
+        <v>39</v>
+      </c>
+      <c r="B10" s="17">
+        <v>369</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1316</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1">
-        <v>751</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7610.016</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>230</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="17">
+        <v>16625.9391891891</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17">
+        <v>10595.0351620419</v>
+      </c>
+      <c r="C13" s="18">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4">
-        <v>76</v>
+      <c r="D13" s="18">
+        <v>4721</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17">
+        <v>31711.7106918239</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1352</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="17">
+        <v>49178.3169642857</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18">
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17">
+        <v>277931.454022988</v>
+      </c>
+      <c r="C16" s="18">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10825</v>
+      <c r="D16" s="18">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1">
-        <v>21421</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17">
+        <v>17529.5655172413</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10715</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>15689.065701559</v>
+      </c>
+      <c r="C18" s="18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="18">
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="17">
+        <v>16291.7119815668</v>
+      </c>
+      <c r="C19" s="18">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1316</v>
+      <c r="D19" s="18">
+        <v>2170</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="17">
+        <v>16806.0983341045</v>
+      </c>
+      <c r="C20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.9" customWidth="1"/>
+    <col min="2" max="2" width="7.9" customWidth="1"/>
+    <col min="3" max="5" width="7.7" customWidth="1"/>
+    <col min="12" max="12" width="10.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10">
+        <v>751</v>
+      </c>
+      <c r="M2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.978</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10">
+        <v>230</v>
+      </c>
+      <c r="M3" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.438</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.938</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8">
+        <v>76</v>
+      </c>
+      <c r="M4" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.967</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.983</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.992</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <v>597</v>
+      </c>
+      <c r="M5" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.011</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.985</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.982</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
+        <v>1352</v>
+      </c>
+      <c r="M6" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13">
+        <v>10825</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.984</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.986</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.989</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.987</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>21421</v>
+      </c>
+      <c r="M8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13">
+        <v>10715</v>
+      </c>
+      <c r="M9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13">
+        <v>1316</v>
+      </c>
+      <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1">
+      <c r="B11" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10">
         <v>125</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.967</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.931</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
+        <v>148</v>
+      </c>
+      <c r="M12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13">
+        <v>4721</v>
+      </c>
+      <c r="M13" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.969</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.844</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10">
+        <v>159</v>
+      </c>
+      <c r="M14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.845</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10">
+        <v>224</v>
+      </c>
+      <c r="M15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.686</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.886</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.914</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.914</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.886</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.971</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <v>174</v>
+      </c>
+      <c r="M16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.603</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10">
+        <v>290</v>
+      </c>
+      <c r="M17" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.956</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.967</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.961</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.994</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.994</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10">
+        <v>898</v>
+      </c>
+      <c r="M18" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.569</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13">
+        <v>2170</v>
+      </c>
+      <c r="M19" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.524</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13">
+        <v>4322</v>
+      </c>
+      <c r="M20" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11">
+      <c r="I21" s="15">
+        <f>SUM(I2:I20)</f>
+        <v>5</v>
+      </c>
+      <c r="J21" s="15">
+        <f>SUM(J2:J20)</f>
+        <v>6</v>
+      </c>
+      <c r="K21" s="15">
+        <f>SUM(K2:K20)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
